--- a/000_Project/Management/Summary_performance_BV.xlsx
+++ b/000_Project/Management/Summary_performance_BV.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NHI5HC\Desktop\home\hieunguyen\Material_HieuNguyen\My_Document\000_Project\Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Material\GIT\My_Document\000_Project\Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171C0169-B1F0-4C72-A0C0-861B351E3C5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6540"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COEM_Package_20200302" sheetId="1" r:id="rId1"/>
@@ -30,13 +31,23 @@
     <definedName name="Z_7E0EA425_A420_4443_B9E0_CDF0AA9E5D09_.wvu.FilterData" localSheetId="0" hidden="1">COEM_Package_20200302!$B$2:$Z$10</definedName>
     <definedName name="Z_9ED4B296_E9A0_43D8_A56B_F4D7CC736352_.wvu.FilterData" localSheetId="0" hidden="1">COEM_Package_20200302!$B$2:$Z$10</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="EXTERNAL Nguyen Kim Thanh (Ban Vien, RBVH/EPS45) - Personal View" guid="{4E06BDBF-2CED-473B-850B-2A6C7311FF41}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
+    <customWorkbookView name="EXTERNAL Do Phu Loc (Ban Vien, RBVH/EPS45) - Personal View" guid="{72A6EB0A-84D5-4B8A-AC51-54CCD061630B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
+    <customWorkbookView name="EXTERNAL Nguyen Tuan Duong (Ban Vien, RBVH/EPS45) - Personal View" guid="{7E0EA425-A420-4443-B9E0-CDF0AA9E5D09}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
     <customWorkbookView name="EXTERNAL Nguyen Trung Hieu (Ban Vien, RBVH/EPS45) - Personal View" guid="{250915DF-0B97-45D7-B29D-7EED4C89C1C1}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="3"/>
-    <customWorkbookView name="EXTERNAL Nguyen Tuan Duong (Ban Vien, RBVH/EPS45) - Personal View" guid="{7E0EA425-A420-4443-B9E0-CDF0AA9E5D09}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="EXTERNAL Do Phu Loc (Ban Vien, RBVH/EPS45) - Personal View" guid="{72A6EB0A-84D5-4B8A-AC51-54CCD061630B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
-    <customWorkbookView name="EXTERNAL Nguyen Kim Thanh (Ban Vien, RBVH/EPS45) - Personal View" guid="{4E06BDBF-2CED-473B-850B-2A6C7311FF41}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1176" activeSheetId="1"/>
   </customWorkbookViews>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -320,7 +331,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
@@ -429,7 +440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -489,8 +500,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -671,6 +680,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -706,6 +732,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -881,36 +924,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Z45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="53.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.85546875" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" customWidth="1"/>
-    <col min="17" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="53.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.81640625" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.7265625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1796875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.54296875" customWidth="1"/>
+    <col min="17" max="18" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -987,7 +1030,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -1028,9 +1071,9 @@
       <c r="O3" s="3">
         <v>113</v>
       </c>
-      <c r="P3" s="3" t="e">
-        <f>ROUNDDOWN(N3/HLOOKUP(#REF!,Table!$C$3:$D$4,2,0)*8,2)</f>
-        <v>#REF!</v>
+      <c r="P3" s="3">
+        <f>ROUNDDOWN(N3/HLOOKUP(D3,Table!$C$3:$D$4,2,0)*8,2)</f>
+        <v>2</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="R3" s="3" t="s">
@@ -1051,7 +1094,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="2:26" s="31" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:26" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B4" s="28">
         <v>2</v>
       </c>
@@ -1092,9 +1135,9 @@
       <c r="O4" s="28">
         <v>459</v>
       </c>
-      <c r="P4" s="28" t="e">
-        <f>ROUNDDOWN(N4/HLOOKUP(#REF!,Table!$C$3:$D$4,2,0)*8,2)</f>
-        <v>#REF!</v>
+      <c r="P4" s="3">
+        <f>ROUNDDOWN(N4/HLOOKUP(D4,Table!$C$3:$D$4,2,0)*8,2)</f>
+        <v>8.16</v>
       </c>
       <c r="Q4" s="28"/>
       <c r="R4" s="28" t="s">
@@ -1117,7 +1160,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
         <v>3</v>
       </c>
@@ -1158,9 +1201,9 @@
       <c r="O5" s="3">
         <v>291</v>
       </c>
-      <c r="P5" s="3" t="e">
-        <f>ROUNDDOWN(N5/HLOOKUP(#REF!,Table!$C$3:$D$4,2,0)*8,2)</f>
-        <v>#REF!</v>
+      <c r="P5" s="3">
+        <f>ROUNDDOWN(N5/HLOOKUP(D5,Table!$C$3:$D$4,2,0)*8,2)</f>
+        <v>5.17</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="3" t="s">
@@ -1181,7 +1224,7 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -1222,9 +1265,9 @@
       <c r="O6" s="3">
         <v>254</v>
       </c>
-      <c r="P6" s="3" t="e">
-        <f>ROUNDDOWN(N6/HLOOKUP(#REF!,Table!$C$3:$D$4,2,0)*8,2)</f>
-        <v>#REF!</v>
+      <c r="P6" s="3">
+        <f>ROUNDDOWN(N6/HLOOKUP(D6,Table!$C$3:$D$4,2,0)*8,2)</f>
+        <v>4.51</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="R6" s="3" t="s">
@@ -1245,7 +1288,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B7" s="3">
         <v>5</v>
       </c>
@@ -1286,9 +1329,9 @@
       <c r="O7" s="3">
         <v>19</v>
       </c>
-      <c r="P7" s="3" t="e">
-        <f>ROUNDDOWN(N7/HLOOKUP(#REF!,Table!$C$3:$D$4,2,0)*8,2)</f>
-        <v>#REF!</v>
+      <c r="P7" s="3">
+        <f>ROUNDDOWN(N7/HLOOKUP(D7,Table!$C$3:$D$4,2,0)*8,2)</f>
+        <v>1.1599999999999999</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="3" t="s">
@@ -1309,7 +1352,7 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B8" s="3">
         <v>6</v>
       </c>
@@ -1350,9 +1393,9 @@
       <c r="O8" s="3">
         <v>478</v>
       </c>
-      <c r="P8" s="3" t="e">
-        <f>ROUNDDOWN(N8/HLOOKUP(#REF!,Table!$C$3:$D$4,2,0)*8,2)</f>
-        <v>#REF!</v>
+      <c r="P8" s="3">
+        <f>ROUNDDOWN(N8/HLOOKUP(D8,Table!$C$3:$D$4,2,0)*8,2)</f>
+        <v>8.49</v>
       </c>
       <c r="Q8" s="3"/>
       <c r="R8" s="3" t="s">
@@ -1373,7 +1416,7 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" spans="2:26" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:26" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B9" s="34">
         <v>7</v>
       </c>
@@ -1414,9 +1457,9 @@
       <c r="O9" s="3">
         <v>286</v>
       </c>
-      <c r="P9" s="3" t="e">
-        <f>ROUNDDOWN(N9/HLOOKUP(#REF!,Table!$C$3:$D$4,2,0)*8,2)</f>
-        <v>#REF!</v>
+      <c r="P9" s="3">
+        <f>ROUNDDOWN(N9/HLOOKUP(D9,Table!$C$3:$D$4,2,0)*8,2)</f>
+        <v>5.08</v>
       </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="3" t="s">
@@ -1437,7 +1480,7 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B10" s="3">
         <v>8</v>
       </c>
@@ -1478,9 +1521,9 @@
       <c r="O10" s="3">
         <v>110</v>
       </c>
-      <c r="P10" s="3" t="e">
-        <f>ROUNDDOWN(N10/HLOOKUP(#REF!,Table!$C$3:$D$4,2,0)*8,2)</f>
-        <v>#REF!</v>
+      <c r="P10" s="3">
+        <f>ROUNDDOWN(N10/HLOOKUP(D10,Table!$C$3:$D$4,2,0)*8,2)</f>
+        <v>1.95</v>
       </c>
       <c r="Q10" s="3"/>
       <c r="R10" s="3" t="s">
@@ -1501,7 +1544,7 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B11" s="3">
         <v>9</v>
       </c>
@@ -1536,7 +1579,10 @@
         <v>251</v>
       </c>
       <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
+      <c r="P11" s="3">
+        <f>ROUNDDOWN(N11/HLOOKUP(D11,Table!$C$3:$D$4,2,0)*8,2)</f>
+        <v>4.46</v>
+      </c>
       <c r="Q11" s="3"/>
       <c r="R11" s="3" t="s">
         <v>23</v>
@@ -1554,7 +1600,7 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B12" s="3">
         <v>10</v>
       </c>
@@ -1589,7 +1635,10 @@
         <v>101</v>
       </c>
       <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
+      <c r="P12" s="3">
+        <f>ROUNDDOWN(N12/HLOOKUP(D12,Table!$C$3:$D$4,2,0)*8,2)</f>
+        <v>1.79</v>
+      </c>
       <c r="Q12" s="3"/>
       <c r="R12" s="3" t="s">
         <v>23</v>
@@ -1607,7 +1656,7 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B13" s="3">
         <v>11</v>
       </c>
@@ -1642,7 +1691,10 @@
         <v>90</v>
       </c>
       <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
+      <c r="P13" s="3">
+        <f>ROUNDDOWN(N13/HLOOKUP(D13,Table!$C$3:$D$4,2,0)*8,2)</f>
+        <v>1.6</v>
+      </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="3" t="s">
         <v>23</v>
@@ -1660,7 +1712,7 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B14" s="3">
         <v>12</v>
       </c>
@@ -1695,7 +1747,10 @@
         <v>101</v>
       </c>
       <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
+      <c r="P14" s="3">
+        <f>ROUNDDOWN(N14/HLOOKUP(D14,Table!$C$3:$D$4,2,0)*8,2)</f>
+        <v>1.79</v>
+      </c>
       <c r="Q14" s="3"/>
       <c r="R14" s="3" t="s">
         <v>23</v>
@@ -1713,7 +1768,7 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1740,7 +1795,7 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1767,7 +1822,7 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1794,7 +1849,7 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1821,7 +1876,7 @@
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1848,7 +1903,7 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
     </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1875,7 +1930,7 @@
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1902,7 +1957,7 @@
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1929,7 +1984,7 @@
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -1944,12 +1999,12 @@
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B25" s="2" t="s">
         <v>0</v>
       </c>
@@ -1971,9 +2026,8 @@
       <c r="H25" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I25" s="37"/>
-    </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B26" s="3">
         <v>1</v>
       </c>
@@ -2000,9 +2054,8 @@
         <f>E26/D26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="38"/>
-    </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B27" s="3">
         <v>2</v>
       </c>
@@ -2029,9 +2082,8 @@
         <f t="shared" ref="H27:H33" si="1">E27/D27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="38"/>
-    </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B28" s="3">
         <v>3</v>
       </c>
@@ -2058,9 +2110,8 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="38"/>
-    </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B29" s="3">
         <v>4</v>
       </c>
@@ -2087,9 +2138,8 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I29" s="38"/>
-    </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B30" s="3">
         <v>5</v>
       </c>
@@ -2116,9 +2166,8 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I30" s="38"/>
-    </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B31" s="3">
         <v>6</v>
       </c>
@@ -2145,9 +2194,8 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I31" s="38"/>
-    </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B32" s="3">
         <v>7</v>
       </c>
@@ -2174,9 +2222,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I32" s="38"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B33" s="3">
         <v>8</v>
       </c>
@@ -2203,14 +2250,13 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I33" s="38"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B36" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B37" s="2" t="s">
         <v>0</v>
       </c>
@@ -2232,9 +2278,8 @@
       <c r="H37" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I37" s="37"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B38" s="3">
         <v>1</v>
       </c>
@@ -2261,9 +2306,8 @@
         <f>E38/D38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I38" s="38"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B39" s="3">
         <v>2</v>
       </c>
@@ -2290,9 +2334,8 @@
         <f t="shared" ref="H39:H45" si="3">E39/D39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="38"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B40" s="3">
         <v>3</v>
       </c>
@@ -2319,9 +2362,8 @@
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="38"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B41" s="3">
         <v>4</v>
       </c>
@@ -2348,9 +2390,8 @@
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="38"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B42" s="3">
         <v>5</v>
       </c>
@@ -2377,9 +2418,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I42" s="38"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B43" s="3">
         <v>6</v>
       </c>
@@ -2406,9 +2446,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I43" s="38"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B44" s="3">
         <v>7</v>
       </c>
@@ -2434,9 +2473,8 @@
         <f t="shared" si="3"/>
         <v>0.41841004184100417</v>
       </c>
-      <c r="I44" s="38"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B45" s="3">
         <v>8</v>
       </c>
@@ -2463,37 +2501,36 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I45" s="38"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:Z14"/>
+  <autoFilter ref="B2:Z14" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <customSheetViews>
-    <customSheetView guid="{250915DF-0B97-45D7-B29D-7EED4C89C1C1}" showAutoFilter="1" hiddenColumns="1" topLeftCell="A13">
-      <selection activeCell="B15" sqref="B15"/>
+    <customSheetView guid="{4E06BDBF-2CED-473B-850B-2A6C7311FF41}" showAutoFilter="1" hiddenColumns="1" topLeftCell="A4">
+      <selection activeCell="E45" sqref="E45"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="B2:Z14"/>
+      <autoFilter ref="B2:Z14" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
+    </customSheetView>
+    <customSheetView guid="{72A6EB0A-84D5-4B8A-AC51-54CCD061630B}" showAutoFilter="1" hiddenColumns="1" topLeftCell="D1">
+      <selection activeCell="Q4" sqref="Q4"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup orientation="portrait" r:id="rId2"/>
+      <autoFilter ref="B2:Y10" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
     <customSheetView guid="{7E0EA425-A420-4443-B9E0-CDF0AA9E5D09}" showAutoFilter="1" hiddenColumns="1" topLeftCell="E1">
       <selection activeCell="I6" sqref="I6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId2"/>
-      <autoFilter ref="B2:Z14"/>
+      <pageSetup orientation="portrait" r:id="rId3"/>
+      <autoFilter ref="B2:Z14" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{72A6EB0A-84D5-4B8A-AC51-54CCD061630B}" showAutoFilter="1" hiddenColumns="1" topLeftCell="D1">
-      <selection activeCell="Q4" sqref="Q4"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId3"/>
-      <autoFilter ref="B2:Y10"/>
-    </customSheetView>
-    <customSheetView guid="{4E06BDBF-2CED-473B-850B-2A6C7311FF41}" showAutoFilter="1" hiddenColumns="1" topLeftCell="A4">
-      <selection activeCell="E45" sqref="E45"/>
+    <customSheetView guid="{250915DF-0B97-45D7-B29D-7EED4C89C1C1}" showAutoFilter="1" hiddenColumns="1" topLeftCell="A13">
+      <selection activeCell="B15" sqref="B15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId4"/>
-      <autoFilter ref="B2:Z14"/>
+      <autoFilter ref="B2:Z14" xr:uid="{00000000-0000-0000-0000-000000000000}"/>
     </customSheetView>
   </customSheetViews>
-  <conditionalFormatting sqref="H26:I33">
+  <conditionalFormatting sqref="H26:H33">
     <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -2501,7 +2538,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H38:I45">
+  <conditionalFormatting sqref="H38:H45">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -2576,19 +2613,19 @@
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Table!$C$24:$C$27</xm:f>
           </x14:formula1>
           <xm:sqref>R3:R22</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Table!$C$8:$C$9</xm:f>
           </x14:formula1>
           <xm:sqref>D3:D22</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Table!$C$13:$C$20</xm:f>
           </x14:formula1>
@@ -2601,17 +2638,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{250915DF-0B97-45D7-B29D-7EED4C89C1C1}">
+    <customSheetView guid="{4E06BDBF-2CED-473B-850B-2A6C7311FF41}">
+      <selection activeCell="C39" sqref="C39"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{72A6EB0A-84D5-4B8A-AC51-54CCD061630B}">
       <selection activeCell="C39" sqref="C39"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -2619,11 +2660,7 @@
       <selection activeCell="C39" sqref="C39"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{72A6EB0A-84D5-4B8A-AC51-54CCD061630B}">
-      <selection activeCell="C39" sqref="C39"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{4E06BDBF-2CED-473B-850B-2A6C7311FF41}">
+    <customSheetView guid="{250915DF-0B97-45D7-B29D-7EED4C89C1C1}">
       <selection activeCell="C39" sqref="C39"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -2633,27 +2670,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="33.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" customWidth="1"/>
+    <col min="5" max="5" width="33.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B2" s="17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -2664,7 +2701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B4" s="18">
         <v>1</v>
       </c>
@@ -2675,12 +2712,12 @@
         <v>450</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
@@ -2694,7 +2731,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" ht="58" x14ac:dyDescent="0.35">
       <c r="B8" s="20">
         <v>1</v>
       </c>
@@ -2708,7 +2745,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B9" s="20">
         <v>2</v>
       </c>
@@ -2722,12 +2759,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
@@ -2735,7 +2772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B13" s="3">
         <v>1</v>
       </c>
@@ -2743,7 +2780,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B14" s="3">
         <v>2</v>
       </c>
@@ -2751,7 +2788,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B15" s="3">
         <v>3</v>
       </c>
@@ -2759,7 +2796,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B16" s="3">
         <v>4</v>
       </c>
@@ -2767,7 +2804,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17" s="3">
         <v>5</v>
       </c>
@@ -2775,7 +2812,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B18" s="3">
         <v>6</v>
       </c>
@@ -2783,7 +2820,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B19" s="3">
         <v>7</v>
       </c>
@@ -2791,7 +2828,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B20" s="3">
         <v>8</v>
       </c>
@@ -2799,12 +2836,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B22" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B23" s="2" t="s">
         <v>0</v>
       </c>
@@ -2812,7 +2849,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24" s="2">
         <v>1</v>
       </c>
@@ -2820,7 +2857,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B25" s="2">
         <v>2</v>
       </c>
@@ -2828,7 +2865,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B26" s="2">
         <v>3</v>
       </c>
@@ -2836,7 +2873,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B27" s="2">
         <v>4</v>
       </c>
@@ -2846,7 +2883,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{250915DF-0B97-45D7-B29D-7EED4C89C1C1}">
+    <customSheetView guid="{4E06BDBF-2CED-473B-850B-2A6C7311FF41}">
+      <selection activeCell="C13" sqref="C13:C20"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{72A6EB0A-84D5-4B8A-AC51-54CCD061630B}">
       <selection activeCell="C13" sqref="C13:C20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -2854,11 +2895,7 @@
       <selection activeCell="C13" sqref="C13:C20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{72A6EB0A-84D5-4B8A-AC51-54CCD061630B}">
-      <selection activeCell="C13" sqref="C13:C20"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{4E06BDBF-2CED-473B-850B-2A6C7311FF41}">
+    <customSheetView guid="{250915DF-0B97-45D7-B29D-7EED4C89C1C1}">
       <selection activeCell="C13" sqref="C13:C20"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -2868,25 +2905,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="30.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7265625" customWidth="1"/>
+    <col min="7" max="7" width="30.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -2894,7 +2931,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
@@ -2902,12 +2939,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="C5" s="15" t="s">
         <v>31</v>
       </c>
@@ -2924,7 +2961,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C6" s="13">
         <v>1</v>
       </c>
@@ -2941,7 +2978,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C7" s="13">
         <v>2</v>
       </c>
@@ -2958,12 +2995,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="C10" s="8" t="s">
         <v>31</v>
       </c>
@@ -2977,7 +3014,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C11" s="10">
         <v>1</v>
       </c>
@@ -2991,7 +3028,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C12" s="10">
         <v>2</v>
       </c>
@@ -3005,80 +3042,80 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C15" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="D15" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C16" s="10">
         <v>1</v>
       </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C17" s="10">
         <v>2</v>
       </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C20" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="40" t="s">
+      <c r="D20" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C21" s="10">
         <v>1</v>
       </c>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C22" s="10">
         <v>2</v>
       </c>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C25" s="15" t="s">
         <v>31</v>
       </c>
@@ -3092,7 +3129,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C26" s="10">
         <v>1</v>
       </c>
@@ -3106,7 +3143,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C27" s="10">
         <v>2</v>
       </c>
@@ -3120,44 +3157,48 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B29" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.35">
       <c r="C30" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D31" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.35">
       <c r="D32" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C33" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D34" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.35">
       <c r="D35" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{250915DF-0B97-45D7-B29D-7EED4C89C1C1}">
+    <customSheetView guid="{4E06BDBF-2CED-473B-850B-2A6C7311FF41}">
+      <selection activeCell="G12" sqref="G12"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{72A6EB0A-84D5-4B8A-AC51-54CCD061630B}">
       <selection activeCell="G12" sqref="G12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -3165,11 +3206,7 @@
       <selection activeCell="G12" sqref="G12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{72A6EB0A-84D5-4B8A-AC51-54CCD061630B}">
-      <selection activeCell="G12" sqref="G12"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{4E06BDBF-2CED-473B-850B-2A6C7311FF41}">
+    <customSheetView guid="{250915DF-0B97-45D7-B29D-7EED4C89C1C1}">
       <selection activeCell="G12" sqref="G12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -3187,24 +3224,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{250915DF-0B97-45D7-B29D-7EED4C89C1C1}">
+    <customSheetView guid="{4E06BDBF-2CED-473B-850B-2A6C7311FF41}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{72A6EB0A-84D5-4B8A-AC51-54CCD061630B}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{7E0EA425-A420-4443-B9E0-CDF0AA9E5D09}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{72A6EB0A-84D5-4B8A-AC51-54CCD061630B}">
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{4E06BDBF-2CED-473B-850B-2A6C7311FF41}">
+    <customSheetView guid="{250915DF-0B97-45D7-B29D-7EED4C89C1C1}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
